--- a/Data/privatization_index_EBRD_selected_countries.xlsx
+++ b/Data/privatization_index_EBRD_selected_countries.xlsx
@@ -48,9 +48,6 @@
     <t>Lithuania</t>
   </si>
   <si>
-    <t>Data source - data is taken from official data of EBRD - http://www.ebrd.com/what-we-do/economic-research-and-data/data/forecasts-macro-data-transition-indicators.html</t>
-  </si>
-  <si>
     <t>Privatization class</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Privatization index of EBRD. Selected countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data source - data is taken from official data of EBRD - http://www.ebrd.com/cs/Satellite?c=Content&amp;cid=1395245467784&amp;d=&amp;pagename=EBRD%2FContent%2FDownloadDocument in the file it is necessary to find indicators “Large scale privatization” and “Small scale privatization” for Ukraine, Latvia, Lithuania, and Belarus for relevant year </t>
   </si>
 </sst>
 </file>
@@ -678,40 +678,40 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
